--- a/data/Downscaleddata/pdfs/surface thetao_thresholds.xlsx
+++ b/data/Downscaleddata/pdfs/surface thetao_thresholds.xlsx
@@ -496,10 +496,10 @@
         <v>8.93288288116455</v>
       </c>
       <c r="D2" t="n">
-        <v>13.39237461141918</v>
+        <v>13.67106065199291</v>
       </c>
       <c r="E2" t="n">
-        <v>8.647496235152056</v>
+        <v>8.810827213099513</v>
       </c>
       <c r="F2" t="n">
         <v>16.16266996806342</v>
@@ -508,10 +508,10 @@
         <v>10.84599750390615</v>
       </c>
       <c r="H2" t="n">
-        <v>13.48906349216141</v>
+        <v>13.69137680584594</v>
       </c>
       <c r="I2" t="n">
-        <v>8.798273606621001</v>
+        <v>8.854824500149302</v>
       </c>
       <c r="J2" t="n">
         <v>17.4833760584301</v>
